--- a/GATEWAY/A1#111DEDALUS0000/DEDALUS SPA/ARGOS/4.25.25706/report-checklist.xlsx
+++ b/GATEWAY/A1#111DEDALUS0000/DEDALUS SPA/ARGOS/4.25.25706/report-checklist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Argos\argos\ASF Progetti\RSA-FSE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Argos\argos\ASF Progetti\RSA-FSE\accreditamento\A1#111DEDALUS0000\DEDALUS SPA\ARGOS\4.25.25706\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C38C9E06-C455-4DD6-9ACA-B0A8326F0E61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F246A800-E957-4B2A-86C3-2D3192D7B7C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TestCases!$A$9:$W$225</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -81,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="539">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1964,18 +1963,12 @@
     <t>subject_application_version: 4.25.25706</t>
   </si>
   <si>
-    <t>Riportato errore da applicativo</t>
-  </si>
-  <si>
     <t xml:space="preserve">Viene segnalato all'utente l'errore, chiedendo conferma se proseguire con l'invio del documento o annullare l'operazione per correggere il problema. </t>
   </si>
   <si>
     <t>Annulla l'operazione</t>
   </si>
   <si>
-    <t>Riportato errore a monte da servizio</t>
-  </si>
-  <si>
     <t>2024-11-05T18:06:00Z</t>
   </si>
   <si>
@@ -2064,6 +2057,9 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.90.4.4.cc082a3f46b908e61b33414542b81032fd9569b6733f2ce6cb901ef482924f66.5aa13b42b7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>l’applicativo effettua controlli preventivi sul dato inserito</t>
   </si>
 </sst>
 </file>
@@ -2978,6 +2974,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3002,9 +3001,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3303,7 +3299,7 @@
   <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4452,10 +4448,10 @@
   <dimension ref="A1:W809"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="78" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="I70" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E165" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I172" sqref="I172"/>
+      <selection pane="bottomRight" activeCell="K171" sqref="K171:K172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4498,14 +4494,14 @@
       <c r="W1" s="9"/>
     </row>
     <row r="2" spans="1:23" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="73" t="s">
+      <c r="B2" s="73"/>
+      <c r="C2" s="74" t="s">
         <v>502</v>
       </c>
-      <c r="D2" s="74"/>
+      <c r="D2" s="75"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -4526,14 +4522,14 @@
       <c r="W2" s="9"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="81" t="s">
+      <c r="B3" s="77"/>
+      <c r="C3" s="82" t="s">
         <v>503</v>
       </c>
-      <c r="D3" s="74"/>
+      <c r="D3" s="75"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -4554,12 +4550,12 @@
       <c r="W3" s="9"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="77"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="81" t="s">
+      <c r="A4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="82" t="s">
         <v>504</v>
       </c>
-      <c r="D4" s="74"/>
+      <c r="D4" s="75"/>
       <c r="E4" s="4"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -4581,12 +4577,12 @@
       <c r="W4" s="9"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
-      <c r="B5" s="80"/>
-      <c r="C5" s="81" t="s">
+      <c r="A5" s="80"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="82" t="s">
         <v>505</v>
       </c>
-      <c r="D5" s="74"/>
+      <c r="D5" s="75"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -4607,8 +4603,8 @@
       <c r="W5" s="9"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="69"/>
-      <c r="B6" s="70"/>
+      <c r="A6" s="70"/>
+      <c r="B6" s="71"/>
       <c r="C6" s="10"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -4928,7 +4924,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="29">
         <v>6</v>
       </c>
@@ -4948,13 +4944,13 @@
         <v>45601</v>
       </c>
       <c r="G15" s="33" t="s">
+        <v>508</v>
+      </c>
+      <c r="H15" s="33" t="s">
+        <v>509</v>
+      </c>
+      <c r="I15" s="33" t="s">
         <v>510</v>
-      </c>
-      <c r="H15" s="33" t="s">
-        <v>511</v>
-      </c>
-      <c r="I15" s="33" t="s">
-        <v>512</v>
       </c>
       <c r="J15" s="34" t="s">
         <v>87</v>
@@ -4977,7 +4973,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="29">
         <v>7</v>
       </c>
@@ -4997,13 +4993,13 @@
         <v>45601</v>
       </c>
       <c r="G16" s="33" t="s">
+        <v>511</v>
+      </c>
+      <c r="H16" s="33" t="s">
+        <v>512</v>
+      </c>
+      <c r="I16" s="33" t="s">
         <v>513</v>
-      </c>
-      <c r="H16" s="33" t="s">
-        <v>514</v>
-      </c>
-      <c r="I16" s="33" t="s">
-        <v>515</v>
       </c>
       <c r="J16" s="34" t="s">
         <v>87</v>
@@ -5026,7 +5022,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="29">
         <v>8</v>
       </c>
@@ -5046,13 +5042,13 @@
         <v>45601</v>
       </c>
       <c r="G17" s="68" t="s">
+        <v>514</v>
+      </c>
+      <c r="H17" s="33" t="s">
+        <v>515</v>
+      </c>
+      <c r="I17" s="33" t="s">
         <v>516</v>
-      </c>
-      <c r="H17" s="33" t="s">
-        <v>517</v>
-      </c>
-      <c r="I17" s="33" t="s">
-        <v>518</v>
       </c>
       <c r="J17" s="34" t="s">
         <v>87</v>
@@ -5075,7 +5071,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="29">
         <v>9</v>
       </c>
@@ -5095,13 +5091,13 @@
         <v>45601</v>
       </c>
       <c r="G18" s="33" t="s">
+        <v>517</v>
+      </c>
+      <c r="H18" s="33" t="s">
+        <v>518</v>
+      </c>
+      <c r="I18" s="33" t="s">
         <v>519</v>
-      </c>
-      <c r="H18" s="33" t="s">
-        <v>520</v>
-      </c>
-      <c r="I18" s="33" t="s">
-        <v>521</v>
       </c>
       <c r="J18" s="34" t="s">
         <v>87</v>
@@ -5629,7 +5625,7 @@
         <v>307</v>
       </c>
       <c r="K32" s="34" t="s">
-        <v>506</v>
+        <v>538</v>
       </c>
       <c r="L32" s="34"/>
       <c r="M32" s="34"/>
@@ -5744,7 +5740,7 @@
         <v>307</v>
       </c>
       <c r="K35" s="34" t="s">
-        <v>506</v>
+        <v>538</v>
       </c>
       <c r="L35" s="34"/>
       <c r="M35" s="34"/>
@@ -5933,7 +5929,7 @@
         <v>307</v>
       </c>
       <c r="K40" s="34" t="s">
-        <v>506</v>
+        <v>538</v>
       </c>
       <c r="L40" s="34"/>
       <c r="M40" s="34"/>
@@ -6048,7 +6044,7 @@
         <v>307</v>
       </c>
       <c r="K43" s="34" t="s">
-        <v>506</v>
+        <v>538</v>
       </c>
       <c r="L43" s="34"/>
       <c r="M43" s="34"/>
@@ -6241,7 +6237,7 @@
         <v>87</v>
       </c>
       <c r="K48" s="34" t="s">
-        <v>506</v>
+        <v>538</v>
       </c>
       <c r="L48" s="34"/>
       <c r="M48" s="34" t="s">
@@ -6251,7 +6247,7 @@
         <v>87</v>
       </c>
       <c r="O48" s="34" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="P48" s="34" t="s">
         <v>87</v>
@@ -6263,7 +6259,7 @@
         <v>87</v>
       </c>
       <c r="S48" s="34" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="T48" s="34"/>
       <c r="U48" s="35"/>
@@ -6376,7 +6372,7 @@
         <v>87</v>
       </c>
       <c r="K51" s="34" t="s">
-        <v>506</v>
+        <v>538</v>
       </c>
       <c r="L51" s="34"/>
       <c r="M51" s="34" t="s">
@@ -6386,7 +6382,7 @@
         <v>87</v>
       </c>
       <c r="O51" s="34" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="P51" s="34" t="s">
         <v>87</v>
@@ -6398,7 +6394,7 @@
         <v>87</v>
       </c>
       <c r="S51" s="34" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="T51" s="34"/>
       <c r="U51" s="35"/>
@@ -6955,7 +6951,7 @@
         <v>307</v>
       </c>
       <c r="K66" s="34" t="s">
-        <v>509</v>
+        <v>538</v>
       </c>
       <c r="L66" s="34"/>
       <c r="M66" s="34"/>
@@ -6996,7 +6992,7 @@
         <v>307</v>
       </c>
       <c r="K67" s="34" t="s">
-        <v>509</v>
+        <v>538</v>
       </c>
       <c r="L67" s="34"/>
       <c r="M67" s="34"/>
@@ -7037,7 +7033,7 @@
         <v>307</v>
       </c>
       <c r="K68" s="34" t="s">
-        <v>509</v>
+        <v>538</v>
       </c>
       <c r="L68" s="34"/>
       <c r="M68" s="34"/>
@@ -7078,7 +7074,7 @@
         <v>307</v>
       </c>
       <c r="K69" s="34" t="s">
-        <v>509</v>
+        <v>538</v>
       </c>
       <c r="L69" s="34"/>
       <c r="M69" s="34"/>
@@ -7119,7 +7115,7 @@
         <v>307</v>
       </c>
       <c r="K70" s="34" t="s">
-        <v>509</v>
+        <v>538</v>
       </c>
       <c r="L70" s="34"/>
       <c r="M70" s="34"/>
@@ -7160,7 +7156,7 @@
         <v>307</v>
       </c>
       <c r="K71" s="34" t="s">
-        <v>509</v>
+        <v>538</v>
       </c>
       <c r="L71" s="34"/>
       <c r="M71" s="34"/>
@@ -7201,7 +7197,7 @@
         <v>307</v>
       </c>
       <c r="K72" s="34" t="s">
-        <v>509</v>
+        <v>538</v>
       </c>
       <c r="L72" s="34"/>
       <c r="M72" s="34"/>
@@ -7242,7 +7238,7 @@
         <v>307</v>
       </c>
       <c r="K73" s="34" t="s">
-        <v>509</v>
+        <v>538</v>
       </c>
       <c r="L73" s="34"/>
       <c r="M73" s="34"/>
@@ -7283,7 +7279,7 @@
         <v>307</v>
       </c>
       <c r="K74" s="34" t="s">
-        <v>509</v>
+        <v>538</v>
       </c>
       <c r="L74" s="34"/>
       <c r="M74" s="34"/>
@@ -7324,7 +7320,7 @@
         <v>307</v>
       </c>
       <c r="K75" s="34" t="s">
-        <v>509</v>
+        <v>538</v>
       </c>
       <c r="L75" s="34"/>
       <c r="M75" s="34"/>
@@ -7365,7 +7361,7 @@
         <v>307</v>
       </c>
       <c r="K76" s="34" t="s">
-        <v>509</v>
+        <v>538</v>
       </c>
       <c r="L76" s="34"/>
       <c r="M76" s="34"/>
@@ -7406,7 +7402,7 @@
         <v>307</v>
       </c>
       <c r="K77" s="34" t="s">
-        <v>509</v>
+        <v>538</v>
       </c>
       <c r="L77" s="34"/>
       <c r="M77" s="34"/>
@@ -10087,7 +10083,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="150" spans="1:23" ht="150.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:23" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="29">
         <v>147</v>
       </c>
@@ -10107,13 +10103,13 @@
         <v>45601</v>
       </c>
       <c r="G150" s="33" t="s">
+        <v>526</v>
+      </c>
+      <c r="H150" s="33" t="s">
+        <v>527</v>
+      </c>
+      <c r="I150" s="33" t="s">
         <v>528</v>
-      </c>
-      <c r="H150" s="33" t="s">
-        <v>529</v>
-      </c>
-      <c r="I150" s="33" t="s">
-        <v>530</v>
       </c>
       <c r="J150" s="34" t="s">
         <v>87</v>
@@ -10136,7 +10132,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="151" spans="1:23" ht="150.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:23" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="29">
         <v>148</v>
       </c>
@@ -10156,13 +10152,13 @@
         <v>45601</v>
       </c>
       <c r="G151" s="33" t="s">
+        <v>529</v>
+      </c>
+      <c r="H151" s="33" t="s">
+        <v>530</v>
+      </c>
+      <c r="I151" s="33" t="s">
         <v>531</v>
-      </c>
-      <c r="H151" s="33" t="s">
-        <v>532</v>
-      </c>
-      <c r="I151" s="33" t="s">
-        <v>533</v>
       </c>
       <c r="J151" s="34" t="s">
         <v>87</v>
@@ -10185,7 +10181,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="152" spans="1:23" ht="150.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:23" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="29">
         <v>149</v>
       </c>
@@ -10205,13 +10201,13 @@
         <v>45602</v>
       </c>
       <c r="G152" s="33" t="s">
+        <v>532</v>
+      </c>
+      <c r="H152" s="33" t="s">
+        <v>533</v>
+      </c>
+      <c r="I152" s="33" t="s">
         <v>534</v>
-      </c>
-      <c r="H152" s="33" t="s">
-        <v>535</v>
-      </c>
-      <c r="I152" s="33" t="s">
-        <v>536</v>
       </c>
       <c r="J152" s="34" t="s">
         <v>87</v>
@@ -10234,7 +10230,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="153" spans="1:23" ht="150.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:23" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="29">
         <v>150</v>
       </c>
@@ -10254,13 +10250,13 @@
         <v>45602</v>
       </c>
       <c r="G153" s="33" t="s">
+        <v>535</v>
+      </c>
+      <c r="H153" s="33" t="s">
+        <v>536</v>
+      </c>
+      <c r="I153" s="33" t="s">
         <v>537</v>
-      </c>
-      <c r="H153" s="33" t="s">
-        <v>538</v>
-      </c>
-      <c r="I153" s="33" t="s">
-        <v>539</v>
       </c>
       <c r="J153" s="34" t="s">
         <v>87</v>
@@ -10307,7 +10303,7 @@
         <v>307</v>
       </c>
       <c r="K154" s="34" t="s">
-        <v>509</v>
+        <v>538</v>
       </c>
       <c r="L154" s="34"/>
       <c r="M154" s="34"/>
@@ -10348,7 +10344,7 @@
         <v>307</v>
       </c>
       <c r="K155" s="34" t="s">
-        <v>509</v>
+        <v>538</v>
       </c>
       <c r="L155" s="34"/>
       <c r="M155" s="34"/>
@@ -10389,7 +10385,7 @@
         <v>307</v>
       </c>
       <c r="K156" s="34" t="s">
-        <v>509</v>
+        <v>538</v>
       </c>
       <c r="L156" s="34"/>
       <c r="M156" s="34"/>
@@ -10430,7 +10426,7 @@
         <v>307</v>
       </c>
       <c r="K157" s="34" t="s">
-        <v>509</v>
+        <v>538</v>
       </c>
       <c r="L157" s="34"/>
       <c r="M157" s="34"/>
@@ -10471,7 +10467,7 @@
         <v>307</v>
       </c>
       <c r="K158" s="34" t="s">
-        <v>509</v>
+        <v>538</v>
       </c>
       <c r="L158" s="34"/>
       <c r="M158" s="34"/>
@@ -10512,7 +10508,7 @@
         <v>307</v>
       </c>
       <c r="K159" s="34" t="s">
-        <v>509</v>
+        <v>538</v>
       </c>
       <c r="L159" s="34"/>
       <c r="M159" s="34"/>
@@ -10553,7 +10549,7 @@
         <v>307</v>
       </c>
       <c r="K160" s="34" t="s">
-        <v>509</v>
+        <v>538</v>
       </c>
       <c r="L160" s="34"/>
       <c r="M160" s="34"/>
@@ -10594,7 +10590,7 @@
         <v>307</v>
       </c>
       <c r="K161" s="34" t="s">
-        <v>509</v>
+        <v>538</v>
       </c>
       <c r="L161" s="34"/>
       <c r="M161" s="34"/>
@@ -10635,7 +10631,7 @@
         <v>307</v>
       </c>
       <c r="K162" s="34" t="s">
-        <v>509</v>
+        <v>538</v>
       </c>
       <c r="L162" s="34"/>
       <c r="M162" s="34"/>
@@ -10676,7 +10672,7 @@
         <v>307</v>
       </c>
       <c r="K163" s="34" t="s">
-        <v>509</v>
+        <v>538</v>
       </c>
       <c r="L163" s="34"/>
       <c r="M163" s="34"/>
@@ -10717,7 +10713,7 @@
         <v>307</v>
       </c>
       <c r="K164" s="34" t="s">
-        <v>509</v>
+        <v>538</v>
       </c>
       <c r="L164" s="34"/>
       <c r="M164" s="34"/>
@@ -10758,7 +10754,7 @@
         <v>307</v>
       </c>
       <c r="K165" s="34" t="s">
-        <v>509</v>
+        <v>538</v>
       </c>
       <c r="L165" s="34"/>
       <c r="M165" s="34"/>
@@ -10799,7 +10795,7 @@
         <v>307</v>
       </c>
       <c r="K166" s="34" t="s">
-        <v>509</v>
+        <v>538</v>
       </c>
       <c r="L166" s="34"/>
       <c r="M166" s="34"/>
@@ -10840,7 +10836,7 @@
         <v>307</v>
       </c>
       <c r="K167" s="34" t="s">
-        <v>509</v>
+        <v>538</v>
       </c>
       <c r="L167" s="34"/>
       <c r="M167" s="34"/>
@@ -10881,7 +10877,7 @@
         <v>307</v>
       </c>
       <c r="K168" s="34" t="s">
-        <v>509</v>
+        <v>538</v>
       </c>
       <c r="L168" s="34"/>
       <c r="M168" s="34"/>
@@ -10922,7 +10918,7 @@
         <v>307</v>
       </c>
       <c r="K169" s="34" t="s">
-        <v>509</v>
+        <v>538</v>
       </c>
       <c r="L169" s="34"/>
       <c r="M169" s="34"/>
@@ -10963,7 +10959,7 @@
         <v>307</v>
       </c>
       <c r="K170" s="34" t="s">
-        <v>509</v>
+        <v>538</v>
       </c>
       <c r="L170" s="34"/>
       <c r="M170" s="34"/>
@@ -11004,7 +11000,7 @@
         <v>307</v>
       </c>
       <c r="K171" s="34" t="s">
-        <v>509</v>
+        <v>538</v>
       </c>
       <c r="L171" s="34"/>
       <c r="M171" s="34"/>
@@ -11021,7 +11017,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="172" spans="1:23" ht="120" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:23" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="29">
         <v>169</v>
       </c>
@@ -11045,7 +11041,7 @@
         <v>307</v>
       </c>
       <c r="K172" s="34" t="s">
-        <v>509</v>
+        <v>538</v>
       </c>
       <c r="L172" s="34"/>
       <c r="M172" s="34"/>
@@ -11062,7 +11058,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="173" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="29">
         <v>174</v>
       </c>
@@ -11099,7 +11095,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="174" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="29">
         <v>175</v>
       </c>
@@ -11136,7 +11132,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="175" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="29">
         <v>176</v>
       </c>
@@ -11173,7 +11169,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="176" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="29">
         <v>177</v>
       </c>
@@ -11210,7 +11206,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="177" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="29">
         <v>178</v>
       </c>
@@ -11247,7 +11243,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="178" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="29">
         <v>179</v>
       </c>
@@ -11284,7 +11280,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="179" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="29">
         <v>180</v>
       </c>
@@ -11321,7 +11317,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="180" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="29">
         <v>181</v>
       </c>
@@ -11358,7 +11354,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="181" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="29">
         <v>182</v>
       </c>
@@ -11395,7 +11391,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="182" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="29">
         <v>183</v>
       </c>
@@ -11432,7 +11428,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="183" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="29">
         <v>184</v>
       </c>
@@ -11469,7 +11465,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="184" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="29">
         <v>185</v>
       </c>
@@ -11506,7 +11502,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="185" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="29">
         <v>186</v>
       </c>
@@ -11543,7 +11539,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="186" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="29">
         <v>187</v>
       </c>
@@ -11580,7 +11576,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="187" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="29">
         <v>188</v>
       </c>
@@ -11617,7 +11613,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="188" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="29">
         <v>189</v>
       </c>
@@ -11654,7 +11650,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="189" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="29">
         <v>190</v>
       </c>
@@ -11691,7 +11687,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="190" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="29">
         <v>191</v>
       </c>
@@ -11728,7 +11724,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="191" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="29">
         <v>368</v>
       </c>
@@ -11765,7 +11761,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="192" spans="1:23" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:23" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="29">
         <v>369</v>
       </c>
@@ -11785,13 +11781,13 @@
         <v>45601</v>
       </c>
       <c r="G192" s="68" t="s">
+        <v>520</v>
+      </c>
+      <c r="H192" s="68" t="s">
+        <v>521</v>
+      </c>
+      <c r="I192" s="69" t="s">
         <v>522</v>
-      </c>
-      <c r="H192" s="68" t="s">
-        <v>523</v>
-      </c>
-      <c r="I192" s="82" t="s">
-        <v>524</v>
       </c>
       <c r="J192" s="34" t="s">
         <v>87</v>
@@ -11814,7 +11810,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="193" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="29">
         <v>371</v>
       </c>
@@ -11851,7 +11847,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="194" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="29">
         <v>372</v>
       </c>
@@ -11888,7 +11884,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="195" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="29">
         <v>373</v>
       </c>
@@ -11925,7 +11921,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="196" spans="1:23" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:23" ht="150" x14ac:dyDescent="0.25">
       <c r="A196" s="29">
         <v>374</v>
       </c>
@@ -11945,13 +11941,13 @@
         <v>45601</v>
       </c>
       <c r="G196" s="33" t="s">
+        <v>523</v>
+      </c>
+      <c r="H196" s="33" t="s">
+        <v>524</v>
+      </c>
+      <c r="I196" s="33" t="s">
         <v>525</v>
-      </c>
-      <c r="H196" s="33" t="s">
-        <v>526</v>
-      </c>
-      <c r="I196" s="33" t="s">
-        <v>527</v>
       </c>
       <c r="J196" s="34" t="s">
         <v>87</v>
@@ -17644,11 +17640,6 @@
       <filters>
         <filter val="LDO"/>
         <filter val="RSA"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="22">
-      <filters>
-        <filter val="KO"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -19931,27 +19922,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -20209,32 +20179,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5C8A108-5C92-4947-B020-8B796E060B59}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20251,4 +20217,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/GATEWAY/A1#111DEDALUS0000/DEDALUS SPA/ARGOS/4.25.25706/report-checklist.xlsx
+++ b/GATEWAY/A1#111DEDALUS0000/DEDALUS SPA/ARGOS/4.25.25706/report-checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Argos\argos\ASF Progetti\RSA-FSE\accreditamento\A1#111DEDALUS0000\DEDALUS SPA\ARGOS\4.25.25706\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F246A800-E957-4B2A-86C3-2D3192D7B7C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373EA50D-E3CD-4FED-9DAD-3A2523E44BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30390" yWindow="510" windowWidth="26160" windowHeight="14430" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="538">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -2057,9 +2057,6 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.90.4.4.cc082a3f46b908e61b33414542b81032fd9569b6733f2ce6cb901ef482924f66.5aa13b42b7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>l’applicativo effettua controlli preventivi sul dato inserito</t>
   </si>
 </sst>
 </file>
@@ -4448,10 +4445,10 @@
   <dimension ref="A1:W809"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="78" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="E165" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="H32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="K171" sqref="K171:K172"/>
+      <selection pane="bottomRight" activeCell="L171" sqref="L171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4924,7 +4921,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="29">
         <v>6</v>
       </c>
@@ -4973,7 +4970,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="29">
         <v>7</v>
       </c>
@@ -5022,7 +5019,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="29">
         <v>8</v>
       </c>
@@ -5071,7 +5068,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="29">
         <v>9</v>
       </c>
@@ -5625,7 +5622,7 @@
         <v>307</v>
       </c>
       <c r="K32" s="34" t="s">
-        <v>538</v>
+        <v>317</v>
       </c>
       <c r="L32" s="34"/>
       <c r="M32" s="34"/>
@@ -5740,7 +5737,7 @@
         <v>307</v>
       </c>
       <c r="K35" s="34" t="s">
-        <v>538</v>
+        <v>317</v>
       </c>
       <c r="L35" s="34"/>
       <c r="M35" s="34"/>
@@ -5929,7 +5926,7 @@
         <v>307</v>
       </c>
       <c r="K40" s="34" t="s">
-        <v>538</v>
+        <v>317</v>
       </c>
       <c r="L40" s="34"/>
       <c r="M40" s="34"/>
@@ -6044,7 +6041,7 @@
         <v>307</v>
       </c>
       <c r="K43" s="34" t="s">
-        <v>538</v>
+        <v>317</v>
       </c>
       <c r="L43" s="34"/>
       <c r="M43" s="34"/>
@@ -6237,7 +6234,7 @@
         <v>87</v>
       </c>
       <c r="K48" s="34" t="s">
-        <v>538</v>
+        <v>317</v>
       </c>
       <c r="L48" s="34"/>
       <c r="M48" s="34" t="s">
@@ -6372,7 +6369,7 @@
         <v>87</v>
       </c>
       <c r="K51" s="34" t="s">
-        <v>538</v>
+        <v>317</v>
       </c>
       <c r="L51" s="34"/>
       <c r="M51" s="34" t="s">
@@ -6951,7 +6948,7 @@
         <v>307</v>
       </c>
       <c r="K66" s="34" t="s">
-        <v>538</v>
+        <v>317</v>
       </c>
       <c r="L66" s="34"/>
       <c r="M66" s="34"/>
@@ -6992,7 +6989,7 @@
         <v>307</v>
       </c>
       <c r="K67" s="34" t="s">
-        <v>538</v>
+        <v>317</v>
       </c>
       <c r="L67" s="34"/>
       <c r="M67" s="34"/>
@@ -7033,7 +7030,7 @@
         <v>307</v>
       </c>
       <c r="K68" s="34" t="s">
-        <v>538</v>
+        <v>317</v>
       </c>
       <c r="L68" s="34"/>
       <c r="M68" s="34"/>
@@ -7074,7 +7071,7 @@
         <v>307</v>
       </c>
       <c r="K69" s="34" t="s">
-        <v>538</v>
+        <v>317</v>
       </c>
       <c r="L69" s="34"/>
       <c r="M69" s="34"/>
@@ -7115,7 +7112,7 @@
         <v>307</v>
       </c>
       <c r="K70" s="34" t="s">
-        <v>538</v>
+        <v>317</v>
       </c>
       <c r="L70" s="34"/>
       <c r="M70" s="34"/>
@@ -7156,7 +7153,7 @@
         <v>307</v>
       </c>
       <c r="K71" s="34" t="s">
-        <v>538</v>
+        <v>317</v>
       </c>
       <c r="L71" s="34"/>
       <c r="M71" s="34"/>
@@ -7197,7 +7194,7 @@
         <v>307</v>
       </c>
       <c r="K72" s="34" t="s">
-        <v>538</v>
+        <v>317</v>
       </c>
       <c r="L72" s="34"/>
       <c r="M72" s="34"/>
@@ -7238,7 +7235,7 @@
         <v>307</v>
       </c>
       <c r="K73" s="34" t="s">
-        <v>538</v>
+        <v>317</v>
       </c>
       <c r="L73" s="34"/>
       <c r="M73" s="34"/>
@@ -7279,7 +7276,7 @@
         <v>307</v>
       </c>
       <c r="K74" s="34" t="s">
-        <v>538</v>
+        <v>317</v>
       </c>
       <c r="L74" s="34"/>
       <c r="M74" s="34"/>
@@ -7320,7 +7317,7 @@
         <v>307</v>
       </c>
       <c r="K75" s="34" t="s">
-        <v>538</v>
+        <v>317</v>
       </c>
       <c r="L75" s="34"/>
       <c r="M75" s="34"/>
@@ -7361,7 +7358,7 @@
         <v>307</v>
       </c>
       <c r="K76" s="34" t="s">
-        <v>538</v>
+        <v>317</v>
       </c>
       <c r="L76" s="34"/>
       <c r="M76" s="34"/>
@@ -7402,7 +7399,7 @@
         <v>307</v>
       </c>
       <c r="K77" s="34" t="s">
-        <v>538</v>
+        <v>317</v>
       </c>
       <c r="L77" s="34"/>
       <c r="M77" s="34"/>
@@ -10083,7 +10080,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="150" spans="1:23" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:23" ht="150.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="29">
         <v>147</v>
       </c>
@@ -10132,7 +10129,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="151" spans="1:23" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:23" ht="150.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="29">
         <v>148</v>
       </c>
@@ -10181,7 +10178,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="152" spans="1:23" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:23" ht="150.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="29">
         <v>149</v>
       </c>
@@ -10230,7 +10227,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="153" spans="1:23" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:23" ht="150.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="29">
         <v>150</v>
       </c>
@@ -10303,7 +10300,7 @@
         <v>307</v>
       </c>
       <c r="K154" s="34" t="s">
-        <v>538</v>
+        <v>317</v>
       </c>
       <c r="L154" s="34"/>
       <c r="M154" s="34"/>
@@ -10344,7 +10341,7 @@
         <v>307</v>
       </c>
       <c r="K155" s="34" t="s">
-        <v>538</v>
+        <v>317</v>
       </c>
       <c r="L155" s="34"/>
       <c r="M155" s="34"/>
@@ -10385,7 +10382,7 @@
         <v>307</v>
       </c>
       <c r="K156" s="34" t="s">
-        <v>538</v>
+        <v>317</v>
       </c>
       <c r="L156" s="34"/>
       <c r="M156" s="34"/>
@@ -10426,7 +10423,7 @@
         <v>307</v>
       </c>
       <c r="K157" s="34" t="s">
-        <v>538</v>
+        <v>317</v>
       </c>
       <c r="L157" s="34"/>
       <c r="M157" s="34"/>
@@ -10467,7 +10464,7 @@
         <v>307</v>
       </c>
       <c r="K158" s="34" t="s">
-        <v>538</v>
+        <v>317</v>
       </c>
       <c r="L158" s="34"/>
       <c r="M158" s="34"/>
@@ -10508,7 +10505,7 @@
         <v>307</v>
       </c>
       <c r="K159" s="34" t="s">
-        <v>538</v>
+        <v>317</v>
       </c>
       <c r="L159" s="34"/>
       <c r="M159" s="34"/>
@@ -10549,7 +10546,7 @@
         <v>307</v>
       </c>
       <c r="K160" s="34" t="s">
-        <v>538</v>
+        <v>317</v>
       </c>
       <c r="L160" s="34"/>
       <c r="M160" s="34"/>
@@ -10590,7 +10587,7 @@
         <v>307</v>
       </c>
       <c r="K161" s="34" t="s">
-        <v>538</v>
+        <v>317</v>
       </c>
       <c r="L161" s="34"/>
       <c r="M161" s="34"/>
@@ -10631,7 +10628,7 @@
         <v>307</v>
       </c>
       <c r="K162" s="34" t="s">
-        <v>538</v>
+        <v>317</v>
       </c>
       <c r="L162" s="34"/>
       <c r="M162" s="34"/>
@@ -10672,7 +10669,7 @@
         <v>307</v>
       </c>
       <c r="K163" s="34" t="s">
-        <v>538</v>
+        <v>317</v>
       </c>
       <c r="L163" s="34"/>
       <c r="M163" s="34"/>
@@ -10713,7 +10710,7 @@
         <v>307</v>
       </c>
       <c r="K164" s="34" t="s">
-        <v>538</v>
+        <v>317</v>
       </c>
       <c r="L164" s="34"/>
       <c r="M164" s="34"/>
@@ -10754,7 +10751,7 @@
         <v>307</v>
       </c>
       <c r="K165" s="34" t="s">
-        <v>538</v>
+        <v>317</v>
       </c>
       <c r="L165" s="34"/>
       <c r="M165" s="34"/>
@@ -10795,7 +10792,7 @@
         <v>307</v>
       </c>
       <c r="K166" s="34" t="s">
-        <v>538</v>
+        <v>317</v>
       </c>
       <c r="L166" s="34"/>
       <c r="M166" s="34"/>
@@ -10836,7 +10833,7 @@
         <v>307</v>
       </c>
       <c r="K167" s="34" t="s">
-        <v>538</v>
+        <v>317</v>
       </c>
       <c r="L167" s="34"/>
       <c r="M167" s="34"/>
@@ -10877,7 +10874,7 @@
         <v>307</v>
       </c>
       <c r="K168" s="34" t="s">
-        <v>538</v>
+        <v>317</v>
       </c>
       <c r="L168" s="34"/>
       <c r="M168" s="34"/>
@@ -10918,7 +10915,7 @@
         <v>307</v>
       </c>
       <c r="K169" s="34" t="s">
-        <v>538</v>
+        <v>317</v>
       </c>
       <c r="L169" s="34"/>
       <c r="M169" s="34"/>
@@ -10959,7 +10956,7 @@
         <v>307</v>
       </c>
       <c r="K170" s="34" t="s">
-        <v>538</v>
+        <v>317</v>
       </c>
       <c r="L170" s="34"/>
       <c r="M170" s="34"/>
@@ -11000,7 +10997,7 @@
         <v>307</v>
       </c>
       <c r="K171" s="34" t="s">
-        <v>538</v>
+        <v>317</v>
       </c>
       <c r="L171" s="34"/>
       <c r="M171" s="34"/>
@@ -11017,7 +11014,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="172" spans="1:23" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:23" ht="120" x14ac:dyDescent="0.25">
       <c r="A172" s="29">
         <v>169</v>
       </c>
@@ -11041,7 +11038,7 @@
         <v>307</v>
       </c>
       <c r="K172" s="34" t="s">
-        <v>538</v>
+        <v>317</v>
       </c>
       <c r="L172" s="34"/>
       <c r="M172" s="34"/>
@@ -11058,7 +11055,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="173" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A173" s="29">
         <v>174</v>
       </c>
@@ -11095,7 +11092,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="174" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A174" s="29">
         <v>175</v>
       </c>
@@ -11132,7 +11129,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="175" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A175" s="29">
         <v>176</v>
       </c>
@@ -11169,7 +11166,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="176" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A176" s="29">
         <v>177</v>
       </c>
@@ -11206,7 +11203,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="177" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A177" s="29">
         <v>178</v>
       </c>
@@ -11243,7 +11240,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="178" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A178" s="29">
         <v>179</v>
       </c>
@@ -11280,7 +11277,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="179" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A179" s="29">
         <v>180</v>
       </c>
@@ -11317,7 +11314,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="180" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A180" s="29">
         <v>181</v>
       </c>
@@ -11354,7 +11351,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="181" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A181" s="29">
         <v>182</v>
       </c>
@@ -11391,7 +11388,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="182" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A182" s="29">
         <v>183</v>
       </c>
@@ -11428,7 +11425,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="183" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A183" s="29">
         <v>184</v>
       </c>
@@ -11465,7 +11462,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="184" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A184" s="29">
         <v>185</v>
       </c>
@@ -11502,7 +11499,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="185" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A185" s="29">
         <v>186</v>
       </c>
@@ -11539,7 +11536,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="186" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A186" s="29">
         <v>187</v>
       </c>
@@ -11576,7 +11573,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="187" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A187" s="29">
         <v>188</v>
       </c>
@@ -11613,7 +11610,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="188" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A188" s="29">
         <v>189</v>
       </c>
@@ -11650,7 +11647,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="189" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A189" s="29">
         <v>190</v>
       </c>
@@ -11687,7 +11684,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="190" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A190" s="29">
         <v>191</v>
       </c>
@@ -11724,7 +11721,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="191" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A191" s="29">
         <v>368</v>
       </c>
@@ -11761,7 +11758,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="192" spans="1:23" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:23" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="29">
         <v>369</v>
       </c>
@@ -11810,7 +11807,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="193" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A193" s="29">
         <v>371</v>
       </c>
@@ -11847,7 +11844,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="194" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A194" s="29">
         <v>372</v>
       </c>
@@ -11884,7 +11881,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="195" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A195" s="29">
         <v>373</v>
       </c>
@@ -11921,7 +11918,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="196" spans="1:23" ht="150" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:23" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="29">
         <v>374</v>
       </c>
@@ -17641,6 +17638,11 @@
         <filter val="LDO"/>
         <filter val="RSA"/>
       </filters>
+    </filterColumn>
+    <filterColumn colId="10">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
     </filterColumn>
   </autoFilter>
   <mergeCells count="7">

--- a/GATEWAY/A1#111DEDALUS0000/DEDALUS SPA/ARGOS/4.25.25706/report-checklist.xlsx
+++ b/GATEWAY/A1#111DEDALUS0000/DEDALUS SPA/ARGOS/4.25.25706/report-checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Argos\argos\ASF Progetti\RSA-FSE\accreditamento\A1#111DEDALUS0000\DEDALUS SPA\ARGOS\4.25.25706\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373EA50D-E3CD-4FED-9DAD-3A2523E44BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3983B0F4-F6E6-4F88-A573-3C5866C20E12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30390" yWindow="510" windowWidth="26160" windowHeight="14430" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -2041,22 +2041,22 @@
     <t>2.16.840.1.113883.2.9.2.90.4.4.cc082a3f46b908e61b33414542b81032fd9569b6733f2ce6cb901ef482924f66.3f0c197de1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2024-12-05T09:24:16Z</t>
-  </si>
-  <si>
-    <t>21deb35f51fb882f</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.90.4.4.cc082a3f46b908e61b33414542b81032fd9569b6733f2ce6cb901ef482924f66.ad62fc98db^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-12-05T09:26:10Z</t>
-  </si>
-  <si>
-    <t>0ef3b2bb337d73d1</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.90.4.4.cc082a3f46b908e61b33414542b81032fd9569b6733f2ce6cb901ef482924f66.5aa13b42b7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2024-11-13T17:20:16Z</t>
+  </si>
+  <si>
+    <t>2024-11-13T17:22:10Z</t>
+  </si>
+  <si>
+    <t>cda45380af53ecc0</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.90.4.4.cc082a3f46b908e61b33414542b81032fd9569b6733f2ce6cb901ef482924f66.8a0a9aad15^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>1d308d143c57a9af</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.90.4.4.cc082a3f46b908e61b33414542b81032fd9569b6733f2ce6cb901ef482924f66.4e9fc9affe^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -4441,14 +4441,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:W809"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="78" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="H32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B151" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="L171" sqref="L171"/>
+      <selection pane="bottomRight" activeCell="I153" sqref="I153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4736,7 +4735,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="29">
         <v>1</v>
       </c>
@@ -4773,7 +4772,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="29">
         <v>2</v>
       </c>
@@ -4810,7 +4809,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="29">
         <v>3</v>
       </c>
@@ -4847,7 +4846,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="29">
         <v>4</v>
       </c>
@@ -4884,7 +4883,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="29">
         <v>5</v>
       </c>
@@ -4921,7 +4920,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="29">
         <v>6</v>
       </c>
@@ -4970,7 +4969,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="29">
         <v>7</v>
       </c>
@@ -5019,7 +5018,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="29">
         <v>8</v>
       </c>
@@ -5068,7 +5067,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="29">
         <v>9</v>
       </c>
@@ -5117,7 +5116,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="29">
         <v>16</v>
       </c>
@@ -5154,7 +5153,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="29">
         <v>17</v>
       </c>
@@ -5191,7 +5190,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="29">
         <v>18</v>
       </c>
@@ -5228,7 +5227,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="29">
         <v>19</v>
       </c>
@@ -5265,7 +5264,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="29">
         <v>20</v>
       </c>
@@ -5302,7 +5301,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="29">
         <v>21</v>
       </c>
@@ -5339,7 +5338,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="29">
         <v>22</v>
       </c>
@@ -5376,7 +5375,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="29">
         <v>23</v>
       </c>
@@ -5413,7 +5412,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="29">
         <v>24</v>
       </c>
@@ -5450,7 +5449,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="29">
         <v>25</v>
       </c>
@@ -5487,7 +5486,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="29">
         <v>26</v>
       </c>
@@ -5524,7 +5523,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="29">
         <v>27</v>
       </c>
@@ -5561,7 +5560,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="29">
         <v>28</v>
       </c>
@@ -5639,7 +5638,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="29">
         <v>30</v>
       </c>
@@ -5676,7 +5675,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="29">
         <v>31</v>
       </c>
@@ -5754,7 +5753,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="29">
         <v>33</v>
       </c>
@@ -5791,7 +5790,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="29">
         <v>34</v>
       </c>
@@ -5828,7 +5827,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="29">
         <v>35</v>
       </c>
@@ -5865,7 +5864,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="29">
         <v>36</v>
       </c>
@@ -5943,7 +5942,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="29">
         <v>38</v>
       </c>
@@ -5980,7 +5979,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="29">
         <v>39</v>
       </c>
@@ -6058,7 +6057,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="29">
         <v>41</v>
       </c>
@@ -6095,7 +6094,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="29">
         <v>42</v>
       </c>
@@ -6132,7 +6131,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="29">
         <v>43</v>
       </c>
@@ -6169,7 +6168,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="29">
         <v>44</v>
       </c>
@@ -6265,7 +6264,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="49" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="29">
         <v>46</v>
       </c>
@@ -6304,7 +6303,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="50" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="29">
         <v>47</v>
       </c>
@@ -6400,7 +6399,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="29">
         <v>49</v>
       </c>
@@ -6439,7 +6438,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="53" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="29">
         <v>50</v>
       </c>
@@ -6478,7 +6477,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="54" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="29">
         <v>51</v>
       </c>
@@ -6517,7 +6516,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="29">
         <v>52</v>
       </c>
@@ -6554,7 +6553,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="56" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="29">
         <v>53</v>
       </c>
@@ -6591,7 +6590,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="29">
         <v>54</v>
       </c>
@@ -6628,7 +6627,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="58" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="29">
         <v>55</v>
       </c>
@@ -6665,7 +6664,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="59" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="29">
         <v>56</v>
       </c>
@@ -6702,7 +6701,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="60" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="29">
         <v>57</v>
       </c>
@@ -6739,7 +6738,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="61" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="29">
         <v>58</v>
       </c>
@@ -6776,7 +6775,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="62" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="29">
         <v>59</v>
       </c>
@@ -6813,7 +6812,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="63" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="29">
         <v>60</v>
       </c>
@@ -6850,7 +6849,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="64" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="29">
         <v>61</v>
       </c>
@@ -6887,7 +6886,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="29">
         <v>62</v>
       </c>
@@ -7416,7 +7415,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="78" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="29">
         <v>75</v>
       </c>
@@ -7453,7 +7452,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="79" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="29">
         <v>76</v>
       </c>
@@ -7490,7 +7489,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="80" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="29">
         <v>77</v>
       </c>
@@ -7527,7 +7526,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="81" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="29">
         <v>78</v>
       </c>
@@ -7564,7 +7563,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="82" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="29">
         <v>79</v>
       </c>
@@ -7601,7 +7600,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="83" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="29">
         <v>80</v>
       </c>
@@ -7638,7 +7637,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="84" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="29">
         <v>81</v>
       </c>
@@ -7675,7 +7674,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="85" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="29">
         <v>82</v>
       </c>
@@ -7712,7 +7711,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="86" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="29">
         <v>83</v>
       </c>
@@ -7749,7 +7748,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="87" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="29">
         <v>84</v>
       </c>
@@ -7786,7 +7785,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="88" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="29">
         <v>85</v>
       </c>
@@ -7823,7 +7822,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="89" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="29">
         <v>86</v>
       </c>
@@ -7860,7 +7859,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="90" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="29">
         <v>87</v>
       </c>
@@ -7897,7 +7896,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="91" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="29">
         <v>88</v>
       </c>
@@ -7934,7 +7933,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="92" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="29">
         <v>89</v>
       </c>
@@ -7971,7 +7970,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="93" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="29">
         <v>90</v>
       </c>
@@ -8008,7 +8007,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="94" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="29">
         <v>91</v>
       </c>
@@ -8045,7 +8044,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="95" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="29">
         <v>92</v>
       </c>
@@ -8082,7 +8081,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="96" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="29">
         <v>93</v>
       </c>
@@ -8119,7 +8118,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="97" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="29">
         <v>94</v>
       </c>
@@ -8156,7 +8155,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="98" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="29">
         <v>95</v>
       </c>
@@ -8193,7 +8192,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="99" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="29">
         <v>96</v>
       </c>
@@ -8230,7 +8229,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="100" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="29">
         <v>97</v>
       </c>
@@ -8267,7 +8266,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="101" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="29">
         <v>98</v>
       </c>
@@ -8304,7 +8303,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="102" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="29">
         <v>99</v>
       </c>
@@ -8341,7 +8340,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="103" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="29">
         <v>100</v>
       </c>
@@ -8378,7 +8377,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="104" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="29">
         <v>101</v>
       </c>
@@ -8415,7 +8414,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="105" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="29">
         <v>102</v>
       </c>
@@ -8452,7 +8451,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="106" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="29">
         <v>103</v>
       </c>
@@ -8489,7 +8488,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="107" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="29">
         <v>104</v>
       </c>
@@ -8526,7 +8525,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="108" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="29">
         <v>105</v>
       </c>
@@ -8563,7 +8562,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="109" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="29">
         <v>106</v>
       </c>
@@ -8600,7 +8599,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="110" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="29">
         <v>107</v>
       </c>
@@ -8637,7 +8636,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="111" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="29">
         <v>108</v>
       </c>
@@ -8674,7 +8673,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="112" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="29">
         <v>109</v>
       </c>
@@ -8711,7 +8710,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="113" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="29">
         <v>110</v>
       </c>
@@ -8748,7 +8747,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="114" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="29">
         <v>111</v>
       </c>
@@ -8785,7 +8784,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="115" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="29">
         <v>112</v>
       </c>
@@ -8822,7 +8821,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="116" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="29">
         <v>113</v>
       </c>
@@ -8859,7 +8858,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="117" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="29">
         <v>114</v>
       </c>
@@ -8896,7 +8895,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="118" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="29">
         <v>115</v>
       </c>
@@ -8933,7 +8932,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="119" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="29">
         <v>116</v>
       </c>
@@ -8970,7 +8969,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="120" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="29">
         <v>117</v>
       </c>
@@ -9007,7 +9006,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="121" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="29">
         <v>118</v>
       </c>
@@ -9044,7 +9043,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="122" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="29">
         <v>119</v>
       </c>
@@ -9081,7 +9080,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="123" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="29">
         <v>120</v>
       </c>
@@ -9118,7 +9117,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="124" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="29">
         <v>121</v>
       </c>
@@ -9155,7 +9154,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="125" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="29">
         <v>122</v>
       </c>
@@ -9192,7 +9191,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="126" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="29">
         <v>123</v>
       </c>
@@ -9229,7 +9228,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="127" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="29">
         <v>124</v>
       </c>
@@ -9266,7 +9265,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="128" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="29">
         <v>125</v>
       </c>
@@ -9303,7 +9302,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="129" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="29">
         <v>126</v>
       </c>
@@ -9340,7 +9339,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="130" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="29">
         <v>127</v>
       </c>
@@ -9377,7 +9376,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="131" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="29">
         <v>128</v>
       </c>
@@ -9414,7 +9413,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="132" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="29">
         <v>129</v>
       </c>
@@ -9451,7 +9450,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="133" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="29">
         <v>130</v>
       </c>
@@ -9488,7 +9487,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="134" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="29">
         <v>131</v>
       </c>
@@ -9525,7 +9524,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="135" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="29">
         <v>132</v>
       </c>
@@ -9562,7 +9561,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="136" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="29">
         <v>133</v>
       </c>
@@ -9599,7 +9598,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="137" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="29">
         <v>134</v>
       </c>
@@ -9636,7 +9635,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="138" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="29">
         <v>135</v>
       </c>
@@ -9673,7 +9672,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="139" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="29">
         <v>136</v>
       </c>
@@ -9710,7 +9709,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="140" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="29">
         <v>137</v>
       </c>
@@ -9747,7 +9746,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="141" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="29">
         <v>138</v>
       </c>
@@ -9784,7 +9783,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="142" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="29">
         <v>139</v>
       </c>
@@ -9821,7 +9820,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="143" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="29">
         <v>140</v>
       </c>
@@ -9858,7 +9857,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="144" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="29">
         <v>141</v>
       </c>
@@ -9895,7 +9894,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="145" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="29">
         <v>142</v>
       </c>
@@ -9932,7 +9931,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="146" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="29">
         <v>143</v>
       </c>
@@ -9969,7 +9968,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="147" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="29">
         <v>144</v>
       </c>
@@ -10006,7 +10005,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="148" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="29">
         <v>145</v>
       </c>
@@ -10043,7 +10042,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="149" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="29">
         <v>146</v>
       </c>
@@ -10080,7 +10079,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="150" spans="1:23" ht="150.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:23" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="29">
         <v>147</v>
       </c>
@@ -10129,7 +10128,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="151" spans="1:23" ht="150.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:23" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="29">
         <v>148</v>
       </c>
@@ -10178,7 +10177,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="152" spans="1:23" ht="150.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:23" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="29">
         <v>149</v>
       </c>
@@ -10195,16 +10194,16 @@
         <v>470</v>
       </c>
       <c r="F152" s="32">
-        <v>45602</v>
+        <v>45609</v>
       </c>
       <c r="G152" s="33" t="s">
         <v>532</v>
       </c>
       <c r="H152" s="33" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="I152" s="33" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="J152" s="34" t="s">
         <v>87</v>
@@ -10227,7 +10226,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="153" spans="1:23" ht="150.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:23" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="29">
         <v>150</v>
       </c>
@@ -10244,10 +10243,10 @@
         <v>471</v>
       </c>
       <c r="F153" s="32">
-        <v>45602</v>
+        <v>45609</v>
       </c>
       <c r="G153" s="33" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="H153" s="33" t="s">
         <v>536</v>
@@ -11014,7 +11013,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="172" spans="1:23" ht="120" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:23" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="29">
         <v>169</v>
       </c>
@@ -11055,7 +11054,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="173" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="29">
         <v>174</v>
       </c>
@@ -11092,7 +11091,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="174" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="29">
         <v>175</v>
       </c>
@@ -11129,7 +11128,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="175" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="29">
         <v>176</v>
       </c>
@@ -11166,7 +11165,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="176" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="29">
         <v>177</v>
       </c>
@@ -11203,7 +11202,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="177" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="29">
         <v>178</v>
       </c>
@@ -11240,7 +11239,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="178" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="29">
         <v>179</v>
       </c>
@@ -11277,7 +11276,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="179" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="29">
         <v>180</v>
       </c>
@@ -11314,7 +11313,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="180" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="29">
         <v>181</v>
       </c>
@@ -11351,7 +11350,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="181" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="29">
         <v>182</v>
       </c>
@@ -11388,7 +11387,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="182" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="29">
         <v>183</v>
       </c>
@@ -11425,7 +11424,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="183" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="29">
         <v>184</v>
       </c>
@@ -11462,7 +11461,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="184" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="29">
         <v>185</v>
       </c>
@@ -11499,7 +11498,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="185" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="29">
         <v>186</v>
       </c>
@@ -11536,7 +11535,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="186" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="29">
         <v>187</v>
       </c>
@@ -11573,7 +11572,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="187" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="29">
         <v>188</v>
       </c>
@@ -11610,7 +11609,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="188" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="29">
         <v>189</v>
       </c>
@@ -11647,7 +11646,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="189" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="29">
         <v>190</v>
       </c>
@@ -11684,7 +11683,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="190" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="29">
         <v>191</v>
       </c>
@@ -11721,7 +11720,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="191" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="29">
         <v>368</v>
       </c>
@@ -11758,7 +11757,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="192" spans="1:23" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:23" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="29">
         <v>369</v>
       </c>
@@ -11807,7 +11806,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="193" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="29">
         <v>371</v>
       </c>
@@ -11844,7 +11843,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="194" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="29">
         <v>372</v>
       </c>
@@ -11881,7 +11880,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="195" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="29">
         <v>373</v>
       </c>
@@ -11918,7 +11917,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="196" spans="1:23" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:23" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="29">
         <v>374</v>
       </c>
@@ -11967,7 +11966,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="197" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="40">
         <v>376</v>
       </c>
@@ -12004,7 +12003,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="198" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="49">
         <v>417</v>
       </c>
@@ -12041,7 +12040,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="199" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="49">
         <v>418</v>
       </c>
@@ -12078,7 +12077,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="200" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="49">
         <v>419</v>
       </c>
@@ -12115,7 +12114,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="201" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="49">
         <v>423</v>
       </c>
@@ -12152,7 +12151,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="202" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="49">
         <v>424</v>
       </c>
@@ -12189,7 +12188,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="203" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="49">
         <v>425</v>
       </c>
@@ -12226,7 +12225,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="204" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="49">
         <v>426</v>
       </c>
@@ -12263,7 +12262,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="205" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="49">
         <v>427</v>
       </c>
@@ -12300,7 +12299,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="206" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="49">
         <v>428</v>
       </c>
@@ -12337,7 +12336,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="207" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="49">
         <v>429</v>
       </c>
@@ -12374,7 +12373,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="208" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="49">
         <v>430</v>
       </c>
@@ -12411,7 +12410,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="209" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="49">
         <v>431</v>
       </c>
@@ -12448,7 +12447,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="210" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="49">
         <v>432</v>
       </c>
@@ -12485,7 +12484,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="211" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="49">
         <v>433</v>
       </c>
@@ -12522,7 +12521,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="212" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="49">
         <v>434</v>
       </c>
@@ -12559,7 +12558,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="213" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="49">
         <v>435</v>
       </c>
@@ -12596,7 +12595,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="214" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="49">
         <v>436</v>
       </c>
@@ -12633,7 +12632,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="215" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="49">
         <v>437</v>
       </c>
@@ -12670,7 +12669,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="216" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" s="49">
         <v>438</v>
       </c>
@@ -12707,7 +12706,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="217" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="49">
         <v>439</v>
       </c>
@@ -12744,7 +12743,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="218" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="49">
         <v>440</v>
       </c>
@@ -12781,7 +12780,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="219" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="49">
         <v>441</v>
       </c>
@@ -12818,7 +12817,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="220" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" s="58">
         <v>442</v>
       </c>
@@ -12855,7 +12854,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="221" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" s="49">
         <v>443</v>
       </c>
@@ -12892,7 +12891,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="222" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="49">
         <v>444</v>
       </c>
@@ -12929,7 +12928,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="223" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" s="49">
         <v>445</v>
       </c>
@@ -12966,7 +12965,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="224" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" s="58">
         <v>446</v>
       </c>
@@ -13003,7 +13002,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="225" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="49">
         <v>447</v>
       </c>
@@ -17632,19 +17631,6 @@
       <c r="W809" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A9:W225" xr:uid="{00000000-0001-0000-0200-000000000000}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="LDO"/>
-        <filter val="RSA"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="10">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
   <mergeCells count="7">
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A2:B2"/>
@@ -19924,6 +19910,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -20181,28 +20188,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5C8A108-5C92-4947-B020-8B796E060B59}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20219,29 +20230,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/GATEWAY/A1#111DEDALUS0000/DEDALUS SPA/ARGOS/4.25.25706/report-checklist.xlsx
+++ b/GATEWAY/A1#111DEDALUS0000/DEDALUS SPA/ARGOS/4.25.25706/report-checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Argos\argos\ASF Progetti\RSA-FSE\accreditamento\A1#111DEDALUS0000\DEDALUS SPA\ARGOS\4.25.25706\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3983B0F4-F6E6-4F88-A573-3C5866C20E12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E48D3F82-7DD5-4E1F-A5A8-89231B4AEA65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29460" yWindow="60" windowWidth="22800" windowHeight="15240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -2044,19 +2044,19 @@
     <t>2024-11-13T17:20:16Z</t>
   </si>
   <si>
-    <t>2024-11-13T17:22:10Z</t>
-  </si>
-  <si>
     <t>cda45380af53ecc0</t>
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.90.4.4.cc082a3f46b908e61b33414542b81032fd9569b6733f2ce6cb901ef482924f66.8a0a9aad15^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>1d308d143c57a9af</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.90.4.4.cc082a3f46b908e61b33414542b81032fd9569b6733f2ce6cb901ef482924f66.4e9fc9affe^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2024-20-13T17:242:20Z</t>
+  </si>
+  <si>
+    <t>a3ce1aa798d66e89</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.90.4.4.cc082a3f46b908e61b33414542b81032fd9569b6733f2ce6cb901ef482924f66.b6d7a38837^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -4444,7 +4444,7 @@
   <dimension ref="A1:W809"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="78" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B151" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="F151" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
       <selection pane="bottomRight" activeCell="I153" sqref="I153"/>
@@ -10200,10 +10200,10 @@
         <v>532</v>
       </c>
       <c r="H152" s="33" t="s">
+        <v>533</v>
+      </c>
+      <c r="I152" s="33" t="s">
         <v>534</v>
-      </c>
-      <c r="I152" s="33" t="s">
-        <v>535</v>
       </c>
       <c r="J152" s="34" t="s">
         <v>87</v>
@@ -10243,10 +10243,10 @@
         <v>471</v>
       </c>
       <c r="F153" s="32">
-        <v>45609</v>
+        <v>45616</v>
       </c>
       <c r="G153" s="33" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="H153" s="33" t="s">
         <v>536</v>
@@ -19910,27 +19910,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -20188,32 +20167,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5C8A108-5C92-4947-B020-8B796E060B59}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20230,4 +20205,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>